--- a/DataDictionary/ChulwalarDataDictionary.xlsx
+++ b/DataDictionary/ChulwalarDataDictionary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="222">
   <si>
     <t>ImportedAsIsDataChulwalar</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Number of national holidays in a given month</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Influence of Chulwalar days</t>
   </si>
   <si>
@@ -670,9 +667,6 @@
   </si>
   <si>
     <t>Monthly Change in Export Prices</t>
-  </si>
-  <si>
-    <t>Total Average Exports per month for all years??</t>
   </si>
   <si>
     <t>Residuals</t>
@@ -720,18 +714,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -755,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -766,18 +754,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,874 +1074,867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2008</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2014</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2008</v>
-      </c>
-      <c r="E2">
+      <c r="B3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2013</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2013</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2008</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2013</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E9" s="12">
         <v>2014</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2013</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="H10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2013</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="H12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="H13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2014</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2008</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2013</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="H14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2013</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E18" s="13">
         <v>2014</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H18" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="B19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2014</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="B20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2014</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="H20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="B21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2014</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="B22" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2008</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2014</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="H22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E23" s="12">
         <v>2014</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="H23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2013</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="H24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E25" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="H25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2013</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2014</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="H26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="H27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2008</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2013</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2014</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="H28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2008</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2013</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="16">
-        <v>2008</v>
-      </c>
-      <c r="E22" s="16">
-        <v>2014</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="H29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="1">
-        <v>2008</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1977,7 +1952,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,57 +1973,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <v>2008</v>
@@ -2057,16 +2032,16 @@
         <v>2013</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
@@ -2074,19 +2049,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1">
         <v>2008</v>
@@ -2095,16 +2070,16 @@
         <v>2013</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>8</v>
@@ -2112,19 +2087,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4">
         <v>2008</v>
@@ -2133,16 +2108,16 @@
         <v>2013</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s">
         <v>10</v>
@@ -2150,19 +2125,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1">
         <v>2008</v>
@@ -2171,16 +2146,16 @@
         <v>2013</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>12</v>
@@ -2188,19 +2163,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <v>2008</v>
@@ -2209,16 +2184,16 @@
         <v>2013</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -2226,19 +2201,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1">
         <v>2008</v>
@@ -2247,16 +2222,16 @@
         <v>2013</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>16</v>
@@ -2264,19 +2239,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <v>2008</v>
@@ -2285,16 +2260,16 @@
         <v>2013</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -2302,19 +2277,19 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="4">
         <v>2014</v>
@@ -2323,16 +2298,16 @@
         <v>2014</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>2</v>
@@ -2340,19 +2315,19 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10">
         <v>2008</v>
@@ -2360,35 +2335,37 @@
       <c r="G10">
         <v>2013</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1">
         <v>2008</v>
@@ -2396,35 +2373,37 @@
       <c r="G11" s="1">
         <v>2013</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12">
         <v>2008</v>
@@ -2432,35 +2411,37 @@
       <c r="G12">
         <v>2013</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1">
         <v>2008</v>
@@ -2468,35 +2449,37 @@
       <c r="G13" s="1">
         <v>2013</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14">
         <v>2008</v>
@@ -2504,35 +2487,37 @@
       <c r="G14">
         <v>2013</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1">
         <v>2008</v>
@@ -2540,35 +2525,37 @@
       <c r="G15" s="1">
         <v>2013</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16">
         <v>2008</v>
@@ -2576,35 +2563,37 @@
       <c r="G16">
         <v>2013</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="4">
         <v>2014</v>
@@ -2612,35 +2601,37 @@
       <c r="G17" s="4">
         <v>2014</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18">
         <v>2008</v>
@@ -2649,33 +2640,33 @@
         <v>2013</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J18" t="s">
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1">
         <v>2008</v>
@@ -2684,33 +2675,33 @@
         <v>2013</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20">
         <v>2008</v>
@@ -2719,33 +2710,33 @@
         <v>2013</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="1">
         <v>2008</v>
@@ -2754,33 +2745,33 @@
         <v>2013</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22">
         <v>2008</v>
@@ -2789,33 +2780,33 @@
         <v>2013</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="1">
         <v>2008</v>
@@ -2824,33 +2815,33 @@
         <v>2013</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24">
         <v>2008</v>
@@ -2859,33 +2850,33 @@
         <v>2013</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="4">
         <v>2014</v>
@@ -2894,34 +2885,34 @@
         <v>2014</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26">
         <v>2008</v>
@@ -2929,32 +2920,34 @@
       <c r="G26">
         <v>2013</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" t="s">
         <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="1">
         <v>2008</v>
@@ -2962,32 +2955,34 @@
       <c r="G27" s="1">
         <v>2013</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28">
         <v>2008</v>
@@ -2995,32 +2990,34 @@
       <c r="G28">
         <v>2013</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
       <c r="I28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="1">
         <v>2008</v>
@@ -3028,32 +3025,34 @@
       <c r="G29" s="1">
         <v>2013</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30">
         <v>2008</v>
@@ -3061,32 +3060,34 @@
       <c r="G30">
         <v>2013</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
       <c r="I30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1">
         <v>2008</v>
@@ -3094,32 +3095,34 @@
       <c r="G31" s="1">
         <v>2013</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="I31" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32">
         <v>2008</v>
@@ -3127,32 +3130,34 @@
       <c r="G32">
         <v>2013</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
       <c r="I32" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" s="4">
         <v>2014</v>
@@ -3160,33 +3165,35 @@
       <c r="G33" s="4">
         <v>2014</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="I33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>117</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34">
         <v>2008</v>
@@ -3195,36 +3202,36 @@
         <v>2013</v>
       </c>
       <c r="H34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="K34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>213</v>
+        <v>117</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="1">
         <v>2008</v>
@@ -3233,36 +3240,36 @@
         <v>2013</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="K35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>213</v>
+        <v>117</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F36">
         <v>2008</v>
@@ -3271,36 +3278,36 @@
         <v>2013</v>
       </c>
       <c r="H36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="K36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>213</v>
+        <v>117</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="1">
         <v>2008</v>
@@ -3309,36 +3316,36 @@
         <v>2013</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="K37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>213</v>
+        <v>117</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38">
         <v>2008</v>
@@ -3347,36 +3354,36 @@
         <v>2013</v>
       </c>
       <c r="H38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="K38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>213</v>
+        <v>117</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="4">
         <v>2008</v>
@@ -3385,36 +3392,36 @@
         <v>2013</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="I39" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>135</v>
-      </c>
       <c r="K39" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>213</v>
+        <v>118</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="7">
         <v>2008</v>
@@ -3423,36 +3430,36 @@
         <v>2013</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>213</v>
+        <v>118</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" s="5">
         <v>2008</v>
@@ -3461,36 +3468,36 @@
         <v>2013</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>213</v>
+        <v>118</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="6">
         <v>2008</v>
@@ -3499,36 +3506,36 @@
         <v>2013</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>213</v>
+        <v>118</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" s="1">
         <v>2008</v>
@@ -3537,36 +3544,36 @@
         <v>2013</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>213</v>
+        <v>118</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" s="6">
         <v>2008</v>
@@ -3575,36 +3582,36 @@
         <v>2013</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>213</v>
+        <v>118</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" s="4">
         <v>2008</v>
@@ -3613,249 +3620,249 @@
         <v>2013</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46">
+        <v>2008</v>
+      </c>
+      <c r="G46">
+        <v>2013</v>
+      </c>
+      <c r="H46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" t="s">
+        <v>137</v>
+      </c>
+      <c r="J46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46">
-        <v>2008</v>
-      </c>
-      <c r="G46">
-        <v>2013</v>
-      </c>
-      <c r="H46" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" t="s">
-        <v>138</v>
-      </c>
-      <c r="J46" t="s">
-        <v>136</v>
-      </c>
       <c r="K46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G47" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="K47" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48">
+        <v>2008</v>
+      </c>
+      <c r="G48">
+        <v>2013</v>
+      </c>
+      <c r="H48" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" t="s">
+        <v>137</v>
+      </c>
+      <c r="J48" t="s">
         <v>135</v>
       </c>
-      <c r="C48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48">
-        <v>2008</v>
-      </c>
-      <c r="G48">
-        <v>2013</v>
-      </c>
-      <c r="H48" t="s">
-        <v>137</v>
-      </c>
-      <c r="I48" t="s">
-        <v>138</v>
-      </c>
-      <c r="J48" t="s">
-        <v>136</v>
-      </c>
       <c r="K48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="K49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50">
+        <v>2008</v>
+      </c>
+      <c r="G50">
+        <v>2013</v>
+      </c>
+      <c r="H50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50" t="s">
+        <v>137</v>
+      </c>
+      <c r="J50" t="s">
         <v>135</v>
       </c>
-      <c r="C50" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50">
-        <v>2008</v>
-      </c>
-      <c r="G50">
-        <v>2013</v>
-      </c>
-      <c r="H50" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" t="s">
-        <v>138</v>
-      </c>
-      <c r="J50" t="s">
-        <v>136</v>
-      </c>
       <c r="K50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2008</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2013</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2008</v>
-      </c>
-      <c r="G51" s="4">
-        <v>2013</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="K51" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52">
         <v>2008</v>
@@ -3864,33 +3871,33 @@
         <v>2013</v>
       </c>
       <c r="H52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
         <v>143</v>
-      </c>
-      <c r="I52" t="s">
-        <v>91</v>
-      </c>
-      <c r="J52" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" s="1">
         <v>2008</v>
@@ -3899,34 +3906,34 @@
         <v>2013</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54">
         <v>2008</v>
@@ -3935,69 +3942,69 @@
         <v>2013</v>
       </c>
       <c r="H54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s">
         <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56">
         <v>2008</v>
@@ -4006,33 +4013,33 @@
         <v>2013</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J56" t="s">
         <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F57" s="1">
         <v>2008</v>
@@ -4041,69 +4048,69 @@
         <v>2013</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58">
+        <v>2008</v>
+      </c>
+      <c r="G58">
+        <v>2013</v>
+      </c>
+      <c r="H58" t="s">
         <v>159</v>
       </c>
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58">
-        <v>2008</v>
-      </c>
-      <c r="G58">
-        <v>2013</v>
-      </c>
-      <c r="H58" t="s">
-        <v>160</v>
-      </c>
       <c r="I58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J58" t="s">
         <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59" s="1">
         <v>2008</v>
@@ -4112,34 +4119,34 @@
         <v>2013</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60">
         <v>2008</v>
@@ -4148,33 +4155,33 @@
         <v>2013</v>
       </c>
       <c r="H60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J60" t="s">
         <v>22</v>
       </c>
       <c r="K60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61" s="1">
         <v>2008</v>
@@ -4183,34 +4190,34 @@
         <v>2013</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62">
         <v>2008</v>
@@ -4219,69 +4226,69 @@
         <v>2013</v>
       </c>
       <c r="H62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J62" t="s">
         <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F63" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G63" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64">
         <v>2008</v>
@@ -4290,33 +4297,33 @@
         <v>2013</v>
       </c>
       <c r="H64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" s="4">
         <v>2008</v>
@@ -4325,123 +4332,123 @@
         <v>2013</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66">
+        <v>2008</v>
+      </c>
+      <c r="G66">
+        <v>2013</v>
+      </c>
+      <c r="H66" t="s">
         <v>142</v>
       </c>
-      <c r="B66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" t="s">
-        <v>89</v>
-      </c>
-      <c r="F66">
-        <v>2008</v>
-      </c>
-      <c r="G66">
-        <v>2013</v>
-      </c>
-      <c r="H66" t="s">
-        <v>143</v>
-      </c>
       <c r="I66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J66" t="s">
         <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G67" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68">
+        <v>2008</v>
+      </c>
+      <c r="G68">
+        <v>2013</v>
+      </c>
+      <c r="H68" t="s">
         <v>149</v>
       </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68">
-        <v>2008</v>
-      </c>
-      <c r="G68">
-        <v>2013</v>
-      </c>
-      <c r="H68" t="s">
-        <v>150</v>
-      </c>
       <c r="I68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J68" t="s">
         <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -4449,16 +4456,16 @@
         <v>28</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F69" s="1">
         <v>2008</v>
@@ -4467,87 +4474,87 @@
         <v>2013</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70">
+        <v>2008</v>
+      </c>
+      <c r="G70">
+        <v>2013</v>
+      </c>
+      <c r="H70" t="s">
         <v>154</v>
       </c>
-      <c r="B70" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70">
-        <v>2008</v>
-      </c>
-      <c r="G70">
-        <v>2013</v>
-      </c>
-      <c r="H70" t="s">
-        <v>155</v>
-      </c>
       <c r="I70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J70" t="s">
         <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F71" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G71" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I71" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L71" s="1"/>
     </row>
@@ -4556,16 +4563,16 @@
         <v>34</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F72" s="7">
         <v>2008</v>
@@ -4574,159 +4581,159 @@
         <v>2013</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F73" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G73" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="I73" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74">
+        <v>2008</v>
+      </c>
+      <c r="G74">
+        <v>2013</v>
+      </c>
+      <c r="H74" t="s">
         <v>165</v>
       </c>
-      <c r="B74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" t="s">
-        <v>89</v>
-      </c>
-      <c r="F74">
-        <v>2008</v>
-      </c>
-      <c r="G74">
-        <v>2013</v>
-      </c>
-      <c r="H74" t="s">
-        <v>166</v>
-      </c>
       <c r="I74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J74" t="s">
         <v>22</v>
       </c>
       <c r="K74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" s="1">
-        <v>2008</v>
-      </c>
-      <c r="G75" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76">
+        <v>2008</v>
+      </c>
+      <c r="G76">
+        <v>2013</v>
+      </c>
+      <c r="H76" t="s">
         <v>171</v>
       </c>
-      <c r="B76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D76" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" t="s">
-        <v>89</v>
-      </c>
-      <c r="F76">
-        <v>2008</v>
-      </c>
-      <c r="G76">
-        <v>2013</v>
-      </c>
-      <c r="H76" t="s">
-        <v>172</v>
-      </c>
       <c r="I76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J76" t="s">
         <v>22</v>
       </c>
       <c r="K76" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -4734,16 +4741,16 @@
         <v>41</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F77" s="1">
         <v>2008</v>
@@ -4752,34 +4759,34 @@
         <v>2013</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F78">
         <v>2008</v>
@@ -4788,33 +4795,33 @@
         <v>2013</v>
       </c>
       <c r="H78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J78" t="s">
         <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F79" s="4">
         <v>2008</v>
@@ -4823,34 +4830,34 @@
         <v>2013</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F80">
         <v>2008</v>
@@ -4858,34 +4865,34 @@
       <c r="G80">
         <v>2014</v>
       </c>
-      <c r="H80" s="10" t="s">
+      <c r="H80" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I80" t="s">
         <v>202</v>
       </c>
-      <c r="I80" t="s">
-        <v>203</v>
-      </c>
       <c r="J80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F81" s="1">
         <v>2008</v>
@@ -4894,34 +4901,34 @@
         <v>2014</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F82" s="2">
         <v>2008</v>
@@ -4930,34 +4937,34 @@
         <v>2014</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F83" s="1">
         <v>2008</v>
@@ -4966,34 +4973,34 @@
         <v>2014</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2">
         <v>2008</v>
@@ -5002,34 +5009,34 @@
         <v>2014</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85" s="1">
         <v>2008</v>
@@ -5038,34 +5045,34 @@
         <v>2014</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F86">
         <v>2008</v>
@@ -5073,35 +5080,35 @@
       <c r="G86">
         <v>2014</v>
       </c>
-      <c r="H86" s="10" t="s">
-        <v>210</v>
+      <c r="H86" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1">
         <v>2014</v>
@@ -5110,34 +5117,34 @@
         <v>2014</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F88">
         <v>2014</v>
@@ -5145,35 +5152,35 @@
       <c r="G88">
         <v>2014</v>
       </c>
-      <c r="H88" s="10" t="s">
-        <v>209</v>
+      <c r="H88" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F89" s="1">
         <v>2014</v>
@@ -5182,34 +5189,34 @@
         <v>2014</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F90">
         <v>2014</v>
@@ -5217,35 +5224,35 @@
       <c r="G90">
         <v>2014</v>
       </c>
-      <c r="H90" s="10" t="s">
-        <v>209</v>
+      <c r="H90" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F91" s="1">
         <v>2014</v>
@@ -5254,34 +5261,34 @@
         <v>2014</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F92">
         <v>2014</v>
@@ -5289,34 +5296,34 @@
       <c r="G92">
         <v>2014</v>
       </c>
-      <c r="H92" s="10" t="s">
-        <v>209</v>
+      <c r="H92" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F93" s="1">
         <v>2014</v>
@@ -5325,33 +5332,33 @@
         <v>2014</v>
       </c>
       <c r="H93" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I93" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F94">
         <v>2014</v>
@@ -5359,34 +5366,34 @@
       <c r="G94">
         <v>2014</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I94" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F95" s="1">
         <v>2014</v>
@@ -5395,34 +5402,34 @@
         <v>2014</v>
       </c>
       <c r="H95" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F96">
         <v>2014</v>
@@ -5430,34 +5437,34 @@
       <c r="G96">
         <v>2014</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I96" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F97" s="1">
         <v>2014</v>
@@ -5466,34 +5473,34 @@
         <v>2014</v>
       </c>
       <c r="H97" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L97" s="1"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F98">
         <v>2014</v>
@@ -5501,34 +5508,34 @@
       <c r="G98">
         <v>2014</v>
       </c>
-      <c r="H98" s="10" t="s">
-        <v>210</v>
+      <c r="H98" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F99" s="1">
         <v>2014</v>
@@ -5537,34 +5544,34 @@
         <v>2014</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L99" s="1"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F100">
         <v>2014</v>
@@ -5572,17 +5579,17 @@
       <c r="G100">
         <v>2014</v>
       </c>
-      <c r="H100" s="10" t="s">
-        <v>210</v>
+      <c r="H100" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/DataDictionary/ChulwalarDataDictionary.xlsx
+++ b/DataDictionary/ChulwalarDataDictionary.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMU\Doing Data Science\Unit 10 Case Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apost\Desktop\SMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="OriginalData" sheetId="1" r:id="rId1"/>
     <sheet name="CreatedData" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="223">
   <si>
     <t>ImportedAsIsDataChulwalar</t>
   </si>
@@ -639,18 +639,6 @@
     <t>Using Holtz Winter's</t>
   </si>
   <si>
-    <t>2014 HW Forecast w/ Exponential Trend</t>
-  </si>
-  <si>
-    <t>2014 HW Forecast w/ Linear trend</t>
-  </si>
-  <si>
-    <t>2014 HW Forecast w/ Linear trend &amp; Dampened</t>
-  </si>
-  <si>
-    <t>2014 HW Forecast w/ Exponential trend &amp; Dampened</t>
-  </si>
-  <si>
     <t>2014 HW Forecast w/ Additive Seasonality</t>
   </si>
   <si>
@@ -691,12 +679,27 @@
   </si>
   <si>
     <t>Field(s)</t>
+  </si>
+  <si>
+    <t>2014 Holts Forecast w/ Linear trend</t>
+  </si>
+  <si>
+    <t>2014 Holts Forecast w/ Exponential Trend</t>
+  </si>
+  <si>
+    <t>2014 Holts Forecast w/ Linear trend &amp; Dampened</t>
+  </si>
+  <si>
+    <t>2014 Holts Forecast w/ Exponential trend &amp; Dampened</t>
+  </si>
+  <si>
+    <t>Using Holts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -853,23 +856,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -905,23 +891,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1076,11 +1045,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>23</v>
@@ -1948,11 +1917,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1933,7 @@
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -1979,7 +1948,7 @@
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>76</v>
@@ -3184,10 +3153,10 @@
         <v>117</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
         <v>88</v>
@@ -3222,10 +3191,10 @@
         <v>117</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>88</v>
@@ -3260,10 +3229,10 @@
         <v>117</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" t="s">
         <v>212</v>
-      </c>
-      <c r="C36" t="s">
-        <v>216</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -3298,10 +3267,10 @@
         <v>117</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>88</v>
@@ -3336,10 +3305,10 @@
         <v>117</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
@@ -3374,10 +3343,10 @@
         <v>117</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>88</v>
@@ -3412,10 +3381,10 @@
         <v>118</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>88</v>
@@ -3450,10 +3419,10 @@
         <v>118</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>88</v>
@@ -3488,10 +3457,10 @@
         <v>118</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>88</v>
@@ -3526,10 +3495,10 @@
         <v>118</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>88</v>
@@ -3564,10 +3533,10 @@
         <v>118</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>88</v>
@@ -3602,10 +3571,10 @@
         <v>118</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>88</v>
@@ -3643,7 +3612,7 @@
         <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
         <v>88</v>
@@ -3678,7 +3647,7 @@
         <v>134</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>88</v>
@@ -3714,7 +3683,7 @@
         <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
         <v>88</v>
@@ -3749,7 +3718,7 @@
         <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>88</v>
@@ -3785,7 +3754,7 @@
         <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
         <v>88</v>
@@ -3820,7 +3789,7 @@
         <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>88</v>
@@ -4901,10 +4870,10 @@
         <v>2014</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>135</v>
@@ -4937,10 +4906,10 @@
         <v>2014</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>135</v>
@@ -4973,10 +4942,10 @@
         <v>2014</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>135</v>
@@ -5009,10 +4978,10 @@
         <v>2014</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>135</v>
@@ -5045,7 +5014,7 @@
         <v>2014</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>203</v>
@@ -5081,7 +5050,7 @@
         <v>2014</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>203</v>
@@ -5117,10 +5086,10 @@
         <v>2014</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>23</v>
@@ -5153,10 +5122,10 @@
         <v>2014</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>23</v>
@@ -5189,10 +5158,10 @@
         <v>2014</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>23</v>
@@ -5225,10 +5194,10 @@
         <v>2014</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>23</v>
@@ -5261,10 +5230,10 @@
         <v>2014</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>23</v>
@@ -5297,10 +5266,10 @@
         <v>2014</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>23</v>
@@ -5332,10 +5301,10 @@
         <v>2014</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>23</v>
@@ -5367,10 +5336,10 @@
         <v>2014</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>23</v>
@@ -5402,10 +5371,10 @@
         <v>2014</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>23</v>
@@ -5438,10 +5407,10 @@
         <v>2014</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>23</v>
@@ -5473,10 +5442,10 @@
         <v>2014</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>23</v>
@@ -5509,10 +5478,10 @@
         <v>2014</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>23</v>
@@ -5544,10 +5513,10 @@
         <v>2014</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>23</v>
@@ -5580,10 +5549,10 @@
         <v>2014</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>23</v>
